--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_20-32.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_20-32.xlsx
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>EGYPRO 5 MG 30 TABLETS</t>
   </si>
   <si>
     <t>EPIAO 4000I.U./ML VIAL</t>
@@ -1744,17 +1747,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1770,17 +1773,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1788,7 +1791,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1796,13 +1799,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1822,13 +1825,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1848,13 +1851,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1874,17 +1877,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1900,17 +1903,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1926,17 +1929,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1952,17 +1955,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1978,17 +1981,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>55.670000000000002</v>
+        <v>20</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2004,17 +2007,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>24</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2022,7 +2025,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2030,13 +2033,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2056,13 +2059,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2082,13 +2085,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>79.200000000000003</v>
+        <v>92</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2114,7 +2117,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>90</v>
+        <v>79.200000000000003</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2134,17 +2137,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2160,17 +2163,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2186,13 +2189,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2218,7 +2221,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2244,7 +2247,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2264,17 +2267,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2282,7 +2285,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2290,17 +2293,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2308,7 +2311,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2316,17 +2319,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2342,17 +2345,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2360,7 +2363,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2368,17 +2371,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>36</v>
+        <v>440</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2386,7 +2389,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2394,17 +2397,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2420,17 +2423,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2438,7 +2441,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2446,13 +2449,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2472,13 +2475,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2498,13 +2501,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2524,13 +2527,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2556,11 +2559,11 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2576,17 +2579,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2602,17 +2605,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2628,13 +2631,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2654,13 +2657,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>30.09</v>
+        <v>50</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2686,7 +2689,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>23</v>
+        <v>30.09</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2706,13 +2709,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2732,17 +2735,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2758,17 +2761,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2784,17 +2787,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2802,7 +2805,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2810,17 +2813,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>22.5</v>
+        <v>17</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2828,7 +2831,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2836,17 +2839,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>63</v>
+        <v>22.5</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2862,13 +2865,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2888,17 +2891,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2914,17 +2917,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2932,7 +2935,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2940,13 +2943,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2966,17 +2969,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2984,7 +2987,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2992,17 +2995,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3018,13 +3021,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3044,13 +3047,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3070,13 +3073,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3096,13 +3099,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3114,7 +3117,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3122,13 +3125,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3136,37 +3139,63 @@
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
-      <c r="K88" s="10">
-        <v>5130.4899999999998</v>
-      </c>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-    </row>
-    <row r="89" ht="17.25" customHeight="1">
-      <c t="s" r="A89" s="11">
+      <c r="A88" s="6">
+        <v>85</v>
+      </c>
+      <c t="s" r="B88" s="7">
         <v>121</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c t="s" r="F89" s="12">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c t="s" r="H88" s="8">
+        <v>9</v>
+      </c>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="9">
+        <v>20</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c t="s" r="N88" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="K89" s="10">
+        <v>5143.9899999999998</v>
+      </c>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="11">
         <v>122</v>
       </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="13"/>
-      <c t="s" r="I89" s="14">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c t="s" r="F90" s="12">
         <v>123</v>
       </c>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="13"/>
+      <c t="s" r="I90" s="14">
+        <v>124</v>
+      </c>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="263">
+  <mergeCells count="266">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3426,10 +3455,13 @@
     <mergeCell ref="B87:G87"/>
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="I89:N89"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="I90:N90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
